--- a/media/seating_files/Seating_Layout_2025-05-01.xlsx
+++ b/media/seating_files/Seating_Layout_2025-05-01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="KU1AECENG101 - Enhancing Englis" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="KU1AECENG102 - Enriching Englis" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="KU1AECENG103 - Engaging English" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KU1AECENG101 - Enhancing Englis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KU1AECENG102 - Enriching Englis" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KU1AECENG103 - Engaging English" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -846,15 +846,349 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>KANNUR UNIVERSITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STATEMENT TO ACCOMPANY ANSWER PAPER PACKETS SENT TO </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>THE CONTROLLER OF EXAMINATIONS BY THE CHIEF SUPERINTENDENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Centre of Examination:Nehru Arts and Science College Kanhangad</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Name of Examination:</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>No. of Packets:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8" ht="28.35" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Code No. of Question Paper</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Total No. of Answer Books</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>01-05-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>3 hrs</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>KU1AECENG102 - Enriching English</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>REGISTER NUMBER OF BOOKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="28.35" customHeight="1">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>No. of Books</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>No. of Books</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>No. of Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
+      <c r="H17" s="8" t="n"/>
+      <c r="I17" s="8" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n"/>
+      <c r="I18" s="8" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="8" t="n"/>
+      <c r="I19" s="8" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="n"/>
+      <c r="I20" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>REGISTER NUMBER OF ABSENTEES</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="19" customHeight="1">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>NA24COMR001, NA24COMR003, NA24COMR005</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="19" customHeight="1">
+      <c r="A24" s="10" t="inlineStr"/>
+    </row>
+    <row r="25" ht="19" customHeight="1">
+      <c r="A25" s="10" t="inlineStr"/>
+    </row>
+    <row r="26" ht="19" customHeight="1">
+      <c r="A26" s="10" t="inlineStr"/>
+    </row>
+    <row r="27" ht="19" customHeight="1">
+      <c r="A27" s="10" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>Station:Kanhangad</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>Date: 01-05-2025</t>
+        </is>
+      </c>
+      <c r="F30" s="12" t="inlineStr">
+        <is>
+          <t>Chief Superintendent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="13" t="inlineStr">
+        <is>
+          <t>N.B.– This statement should accompany the answer papers for each subject and should be carefully verified with the answer books by the Chief Superintendent before despatch.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C9:E13"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="H9:I13"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A6:I7"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G13"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="1"/>
 </worksheet>
 </file>
 
